--- a/evaluation/results/one_svm/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_3/test_95_5/evaluation_metrics.xlsx
@@ -518,7 +518,7 @@
         <v>0.2071713147410359</v>
       </c>
       <c r="H2">
-        <v>0.5631353665061529</v>
+        <v>0.8003611556982344</v>
       </c>
       <c r="I2">
         <v>6</v>

--- a/evaluation/results/one_svm/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/one_svm/split_3/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.8772241992882562</v>
+        <v>0.4377224199288256</v>
       </c>
       <c r="C2">
-        <v>0.1132075471698113</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="D2">
-        <v>0.2142857142857143</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.1481481481481481</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="F2">
-        <v>0.1818181818181818</v>
+        <v>0.3070175438596491</v>
       </c>
       <c r="G2">
-        <v>0.2071713147410359</v>
+        <v>0.6973180076628352</v>
       </c>
       <c r="H2">
-        <v>0.8003611556982344</v>
+        <v>0.7998261102193687</v>
       </c>
       <c r="I2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>47</v>
+        <v>316</v>
       </c>
       <c r="K2">
-        <v>487</v>
+        <v>218</v>
       </c>
       <c r="L2">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9567779960707269</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9119850187265918</v>
+        <v>0.4082397003745318</v>
       </c>
       <c r="D2">
-        <v>0.9338446788111218</v>
+        <v>0.5797872340425532</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.1132075471698113</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="C3">
-        <v>0.2142857142857143</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1481481481481481</v>
+        <v>0.1505376344086022</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.8772241992882562</v>
+        <v>0.4377224199288256</v>
       </c>
       <c r="C4">
-        <v>0.8772241992882562</v>
+        <v>0.4377224199288256</v>
       </c>
       <c r="D4">
-        <v>0.8772241992882562</v>
+        <v>0.4377224199288256</v>
       </c>
       <c r="E4">
-        <v>0.8772241992882562</v>
+        <v>0.4377224199288256</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5349927716202691</v>
+        <v>0.5406976744186046</v>
       </c>
       <c r="C5">
-        <v>0.563135366506153</v>
+        <v>0.7041198501872659</v>
       </c>
       <c r="D5">
-        <v>0.540996413479635</v>
+        <v>0.3651624342255776</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9147495751290442</v>
+        <v>0.9542332202267649</v>
       </c>
       <c r="C6">
-        <v>0.8772241992882562</v>
+        <v>0.4377224199288256</v>
       </c>
       <c r="D6">
-        <v>0.8946996559311159</v>
+        <v>0.5584011329931747</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>487</v>
+        <v>218</v>
       </c>
       <c r="C2">
-        <v>47</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
